--- a/实验记录.xlsx
+++ b/实验记录.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="86">
   <si>
     <t>kNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,6 +345,22 @@
   </si>
   <si>
     <t>abalone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oripca_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori_new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oripca_new(rf.adb)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -604,6 +622,17 @@
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -622,8 +651,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -906,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M55" sqref="M55"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:Q57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -923,66 +950,66 @@
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="36" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="36" t="s">
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="36" t="s">
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="36" t="s">
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="42"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="38"/>
+      <c r="AQ2" s="42"/>
+      <c r="AR2" s="43"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="33">
         <v>1</v>
       </c>
@@ -2508,7 +2535,7 @@
         <f>SUM(AR5:AR12)</f>
         <v>622.64808362369308</v>
       </c>
-      <c r="AS13" s="42">
+      <c r="AS13" s="39">
         <f>SUM(AS5:AS12)</f>
         <v>648.0603948896628</v>
       </c>
@@ -3297,19 +3324,19 @@
         <v>797.09999999999991</v>
       </c>
       <c r="C35" s="4">
-        <f t="shared" ref="C35:F35" si="2">SUM(C27:C34)</f>
+        <f>SUM(C27:C34)</f>
         <v>789.14</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(D27:D34)</f>
         <v>792.74</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(E27:E34)</f>
         <v>794.1099999999999</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(F27:F34)</f>
         <v>793.41000000000008</v>
       </c>
       <c r="Q35" s="4">
@@ -3685,19 +3712,19 @@
         <v>654.36</v>
       </c>
       <c r="C46" s="4">
-        <f t="shared" ref="C46:F46" si="3">SUM(C38:C45)</f>
+        <f>SUM(C38:C45)</f>
         <v>615.36999999999989</v>
       </c>
       <c r="D46" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(D38:D45)</f>
         <v>622.41999999999996</v>
       </c>
       <c r="E46" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(E38:E45)</f>
         <v>644.74</v>
       </c>
       <c r="F46" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(F38:F45)</f>
         <v>607.374890254609</v>
       </c>
       <c r="Q46" s="4">
@@ -4069,47 +4096,47 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B57" s="4">
-        <f>SUM(B49:B56)</f>
+        <f t="shared" ref="B57:L57" si="2">SUM(B49:B56)</f>
         <v>695.94999999999993</v>
       </c>
       <c r="C57" s="4">
-        <f t="shared" ref="C57:F57" si="4">SUM(C49:C56)</f>
+        <f t="shared" si="2"/>
         <v>690.94999999999993</v>
       </c>
       <c r="D57" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>694.93999999999994</v>
       </c>
       <c r="E57" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>700.31</v>
       </c>
       <c r="F57" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>689.09859154929541</v>
       </c>
       <c r="G57" s="4">
-        <f t="shared" ref="G57" si="5">SUM(G49:G56)</f>
+        <f t="shared" si="2"/>
         <v>688.82494969818868</v>
       </c>
       <c r="H57" s="4">
-        <f t="shared" ref="H57" si="6">SUM(H49:H56)</f>
+        <f t="shared" si="2"/>
         <v>703.35613682092514</v>
       </c>
       <c r="I57" s="4">
-        <f t="shared" ref="I57" si="7">SUM(I49:I56)</f>
+        <f t="shared" si="2"/>
         <v>631.00603621730329</v>
       </c>
       <c r="J57" s="4">
-        <f t="shared" ref="J57" si="8">SUM(J49:J56)</f>
+        <f t="shared" si="2"/>
         <v>692.77665995975826</v>
       </c>
       <c r="K57" s="4">
-        <f t="shared" ref="K57" si="9">SUM(K49:K56)</f>
+        <f t="shared" si="2"/>
         <v>693.63782696177043</v>
       </c>
       <c r="L57" s="4">
-        <f t="shared" ref="L57" si="10">SUM(L49:L56)</f>
+        <f t="shared" si="2"/>
         <v>717.85915492957713</v>
       </c>
       <c r="Q57" s="4">
@@ -4384,24 +4411,24 @@
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B68" s="43">
+      <c r="B68" s="40">
         <f>SUM(B60:B67)</f>
         <v>755.45</v>
       </c>
-      <c r="C68" s="43">
-        <f t="shared" ref="C68:F68" si="11">SUM(C60:C67)</f>
+      <c r="C68" s="40">
+        <f>SUM(C60:C67)</f>
         <v>679.42000000000007</v>
       </c>
-      <c r="D68" s="43">
-        <f t="shared" si="11"/>
+      <c r="D68" s="40">
+        <f>SUM(D60:D67)</f>
         <v>693.68000000000006</v>
       </c>
-      <c r="E68" s="43">
-        <f t="shared" si="11"/>
+      <c r="E68" s="40">
+        <f>SUM(E60:E67)</f>
         <v>671.34</v>
       </c>
-      <c r="F68" s="43">
-        <f t="shared" si="11"/>
+      <c r="F68" s="40">
+        <f>SUM(F60:F67)</f>
         <v>659.31999999999994</v>
       </c>
       <c r="Q68" s="16">
@@ -4688,19 +4715,19 @@
         <v>189.09</v>
       </c>
       <c r="C80" s="4">
-        <f t="shared" ref="C80:F80" si="12">SUM(C72:C79)</f>
+        <f>SUM(C72:C79)</f>
         <v>171.81</v>
       </c>
       <c r="D80" s="4">
-        <f t="shared" si="12"/>
+        <f>SUM(D72:D79)</f>
         <v>182.57</v>
       </c>
       <c r="E80" s="4">
-        <f t="shared" si="12"/>
+        <f>SUM(E72:E79)</f>
         <v>185.62</v>
       </c>
       <c r="F80" s="4">
-        <f t="shared" si="12"/>
+        <f>SUM(F72:F79)</f>
         <v>183.37</v>
       </c>
       <c r="Q80" s="4">
@@ -4720,4 +4747,1839 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="43"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="22"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="36">
+        <v>1</v>
+      </c>
+      <c r="G3" s="37">
+        <v>2</v>
+      </c>
+      <c r="H3" s="37">
+        <v>3</v>
+      </c>
+      <c r="I3" s="37">
+        <v>4</v>
+      </c>
+      <c r="J3" s="37">
+        <v>5</v>
+      </c>
+      <c r="K3" s="37">
+        <v>6</v>
+      </c>
+      <c r="L3" s="38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="22"/>
+      <c r="B4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="11">
+        <v>83.19</v>
+      </c>
+      <c r="C5" s="12">
+        <v>81.48</v>
+      </c>
+      <c r="D5" s="12">
+        <v>82.7</v>
+      </c>
+      <c r="E5" s="13">
+        <v>82.4</v>
+      </c>
+      <c r="F5" s="15">
+        <v>78.350754936120794</v>
+      </c>
+      <c r="G5" s="16">
+        <v>78.385598141695695</v>
+      </c>
+      <c r="H5" s="16">
+        <v>78.8385598141695</v>
+      </c>
+      <c r="I5" s="16">
+        <v>78.873403019744401</v>
+      </c>
+      <c r="J5" s="16">
+        <v>81.242740998838499</v>
+      </c>
+      <c r="K5" s="16">
+        <v>81.242740998838499</v>
+      </c>
+      <c r="L5" s="17">
+        <v>82.694541231126493</v>
+      </c>
+      <c r="M5" s="4">
+        <v>80.952380952380892</v>
+      </c>
+      <c r="N5" s="4">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="O5" s="4">
+        <v>80.952380952380906</v>
+      </c>
+      <c r="P5" s="4">
+        <v>80.952380952380906</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>83.3333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11">
+        <v>79</v>
+      </c>
+      <c r="C6" s="12">
+        <v>78.12</v>
+      </c>
+      <c r="D6" s="12">
+        <v>78.72</v>
+      </c>
+      <c r="E6" s="13">
+        <v>78.73</v>
+      </c>
+      <c r="F6" s="15">
+        <v>77.421602787456393</v>
+      </c>
+      <c r="G6" s="16">
+        <v>78.850174216027796</v>
+      </c>
+      <c r="H6" s="18">
+        <v>79.279907084785094</v>
+      </c>
+      <c r="I6" s="16">
+        <v>74.018583042973205</v>
+      </c>
+      <c r="J6" s="16">
+        <v>75.493612078977904</v>
+      </c>
+      <c r="K6" s="16">
+        <v>75.493612078977904</v>
+      </c>
+      <c r="L6" s="19">
+        <v>76.910569105690996</v>
+      </c>
+      <c r="M6" s="4">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="N6" s="4">
+        <v>88.095238095238003</v>
+      </c>
+      <c r="O6" s="4">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="P6" s="4">
+        <v>88.095238095238003</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>92.857142857142804</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="11">
+        <v>77.3</v>
+      </c>
+      <c r="C7" s="12">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="D7" s="12">
+        <v>75.75</v>
+      </c>
+      <c r="E7" s="13">
+        <v>76.11</v>
+      </c>
+      <c r="F7" s="15">
+        <v>73.542392566782794</v>
+      </c>
+      <c r="G7" s="16">
+        <v>76.933797909407602</v>
+      </c>
+      <c r="H7" s="18">
+        <v>79.744483159117294</v>
+      </c>
+      <c r="I7" s="16">
+        <v>75.447154471544707</v>
+      </c>
+      <c r="J7" s="16">
+        <v>74.529616724738602</v>
+      </c>
+      <c r="K7" s="16">
+        <v>74.529616724738602</v>
+      </c>
+      <c r="L7" s="19">
+        <v>74.506387921021997</v>
+      </c>
+      <c r="M7" s="4">
+        <v>80.952380952380892</v>
+      </c>
+      <c r="N7" s="4">
+        <v>90.476190476190396</v>
+      </c>
+      <c r="O7" s="4">
+        <v>80.952380952380906</v>
+      </c>
+      <c r="P7" s="4">
+        <v>88.095238095238003</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>92.857142857142804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11">
+        <v>81.709999999999994</v>
+      </c>
+      <c r="C8" s="12">
+        <v>58.41</v>
+      </c>
+      <c r="D8" s="12">
+        <v>66.44</v>
+      </c>
+      <c r="E8" s="13">
+        <v>33.64</v>
+      </c>
+      <c r="F8" s="15">
+        <v>53.368176538908202</v>
+      </c>
+      <c r="G8" s="16">
+        <v>53.368176538908202</v>
+      </c>
+      <c r="H8" s="16">
+        <v>81.242740998838499</v>
+      </c>
+      <c r="I8" s="16">
+        <v>77.375145180023196</v>
+      </c>
+      <c r="J8" s="16">
+        <v>83.623693379790893</v>
+      </c>
+      <c r="K8" s="18">
+        <v>83.623693379790893</v>
+      </c>
+      <c r="L8" s="19">
+        <v>82.206736353077801</v>
+      </c>
+      <c r="M8" s="4">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="N8" s="4">
+        <v>88.095238095238003</v>
+      </c>
+      <c r="O8" s="4">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="P8" s="4">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>88.095238095238003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="11">
+        <v>77.87</v>
+      </c>
+      <c r="C9" s="12">
+        <v>81</v>
+      </c>
+      <c r="D9" s="28">
+        <v>82.54</v>
+      </c>
+      <c r="E9" s="13">
+        <v>47.4</v>
+      </c>
+      <c r="F9" s="15">
+        <v>78.362369337979104</v>
+      </c>
+      <c r="G9" s="18">
+        <v>79.779326364692196</v>
+      </c>
+      <c r="H9" s="16">
+        <v>76.492450638791993</v>
+      </c>
+      <c r="I9" s="16">
+        <v>78.350754936120694</v>
+      </c>
+      <c r="J9" s="16">
+        <v>77.433217189314703</v>
+      </c>
+      <c r="K9" s="16">
+        <v>76.933797909407602</v>
+      </c>
+      <c r="L9" s="19">
+        <v>79.326364692218306</v>
+      </c>
+      <c r="M9" s="4">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="N9" s="4">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="O9" s="4">
+        <v>88.095238095238003</v>
+      </c>
+      <c r="P9" s="4">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>85.714285714285694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="11">
+        <v>78.83</v>
+      </c>
+      <c r="C10" s="12">
+        <v>80</v>
+      </c>
+      <c r="D10" s="28">
+        <v>81.040000000000006</v>
+      </c>
+      <c r="E10" s="13">
+        <v>53.95</v>
+      </c>
+      <c r="F10" s="15">
+        <v>80.743321718931398</v>
+      </c>
+      <c r="G10" s="16">
+        <v>78.861788617886106</v>
+      </c>
+      <c r="H10" s="16">
+        <v>78.850174216027796</v>
+      </c>
+      <c r="I10" s="16">
+        <v>72.078977932636406</v>
+      </c>
+      <c r="J10" s="16">
+        <v>80.743321718931398</v>
+      </c>
+      <c r="K10" s="18">
+        <v>80.743321718931398</v>
+      </c>
+      <c r="L10" s="19">
+        <v>79.825783972125393</v>
+      </c>
+      <c r="M10" s="4">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="N10" s="4">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="O10" s="4">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="P10" s="4">
+        <v>80.952380952380906</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>80.952380952380906</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="11">
+        <v>84.09</v>
+      </c>
+      <c r="C11" s="12">
+        <v>81.069999999999993</v>
+      </c>
+      <c r="D11" s="12">
+        <v>82</v>
+      </c>
+      <c r="E11" s="13">
+        <v>82.37</v>
+      </c>
+      <c r="F11" s="15">
+        <v>78.362369337979104</v>
+      </c>
+      <c r="G11" s="16">
+        <v>81.265969802555105</v>
+      </c>
+      <c r="H11" s="16">
+        <v>86.039488966318203</v>
+      </c>
+      <c r="I11" s="16">
+        <v>79.3031358885017</v>
+      </c>
+      <c r="J11" s="18">
+        <v>86.051103368176499</v>
+      </c>
+      <c r="K11" s="16">
+        <v>84.157955865272896</v>
+      </c>
+      <c r="L11" s="19">
+        <v>82.195121951219505</v>
+      </c>
+      <c r="M11" s="4">
+        <v>95.238095238095198</v>
+      </c>
+      <c r="N11" s="4">
+        <v>88.095238095238003</v>
+      </c>
+      <c r="O11" s="4">
+        <v>88.095238095238003</v>
+      </c>
+      <c r="P11" s="4">
+        <v>80.952380952380906</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>90.476190476190396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="11">
+        <v>75.02</v>
+      </c>
+      <c r="C12" s="12">
+        <v>74.23</v>
+      </c>
+      <c r="D12" s="12">
+        <v>74.52</v>
+      </c>
+      <c r="E12" s="13">
+        <v>74.959999999999994</v>
+      </c>
+      <c r="F12" s="15">
+        <v>73.077816492450594</v>
+      </c>
+      <c r="G12" s="16">
+        <v>73.077816492450594</v>
+      </c>
+      <c r="H12" s="16">
+        <v>75.958188153310005</v>
+      </c>
+      <c r="I12" s="16">
+        <v>71.626016260162601</v>
+      </c>
+      <c r="J12" s="16">
+        <v>74.053426248548107</v>
+      </c>
+      <c r="K12" s="16">
+        <v>77.398373983739802</v>
+      </c>
+      <c r="L12" s="17">
+        <v>75.9698025551684</v>
+      </c>
+      <c r="M12" s="4">
+        <v>61.904761904761898</v>
+      </c>
+      <c r="N12" s="4">
+        <v>69.047619047619008</v>
+      </c>
+      <c r="O12" s="4">
+        <v>61.904761904761898</v>
+      </c>
+      <c r="P12" s="4">
+        <v>76.190476190476105</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>83.3333333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="35">
+        <f t="shared" ref="B13:L13" si="0">SUM(B5:B12)</f>
+        <v>637.01</v>
+      </c>
+      <c r="C13" s="21">
+        <f t="shared" si="0"/>
+        <v>608.85000000000014</v>
+      </c>
+      <c r="D13" s="21">
+        <f t="shared" si="0"/>
+        <v>623.71</v>
+      </c>
+      <c r="E13" s="27">
+        <f t="shared" si="0"/>
+        <v>529.55999999999995</v>
+      </c>
+      <c r="F13" s="20">
+        <f t="shared" si="0"/>
+        <v>593.22880371660835</v>
+      </c>
+      <c r="G13" s="21">
+        <f t="shared" si="0"/>
+        <v>600.52264808362315</v>
+      </c>
+      <c r="H13" s="26">
+        <f t="shared" si="0"/>
+        <v>636.44599303135828</v>
+      </c>
+      <c r="I13" s="21">
+        <f t="shared" si="0"/>
+        <v>607.07317073170691</v>
+      </c>
+      <c r="J13" s="21">
+        <f t="shared" si="0"/>
+        <v>633.17073170731658</v>
+      </c>
+      <c r="K13" s="21">
+        <f t="shared" si="0"/>
+        <v>634.12311265969754</v>
+      </c>
+      <c r="L13" s="27">
+        <f t="shared" si="0"/>
+        <v>633.63530778164886</v>
+      </c>
+      <c r="M13" s="4">
+        <v>657.14285714285677</v>
+      </c>
+      <c r="N13" s="4">
+        <v>673.8095238095234</v>
+      </c>
+      <c r="O13" s="4">
+        <f>SUM(O5:O12)</f>
+        <v>654.76190476190447</v>
+      </c>
+      <c r="P13" s="4">
+        <f>SUM(P5:P12)</f>
+        <v>666.66666666666629</v>
+      </c>
+      <c r="Q13" s="4">
+        <f>SUM(Q5:Q12)</f>
+        <v>697.61904761904725</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="11">
+        <v>99.7</v>
+      </c>
+      <c r="C18" s="12">
+        <v>99.27</v>
+      </c>
+      <c r="D18" s="12">
+        <v>99.52</v>
+      </c>
+      <c r="E18" s="13">
+        <v>99.52</v>
+      </c>
+      <c r="F18" s="15">
+        <v>99.92</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="11">
+        <v>99.7</v>
+      </c>
+      <c r="C19" s="12">
+        <v>97.95</v>
+      </c>
+      <c r="D19" s="12">
+        <v>98.68</v>
+      </c>
+      <c r="E19" s="13">
+        <v>98.97</v>
+      </c>
+      <c r="F19" s="15">
+        <v>98.9</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="11">
+        <v>99.92</v>
+      </c>
+      <c r="C20" s="12">
+        <v>98.97</v>
+      </c>
+      <c r="D20" s="12">
+        <v>99.27</v>
+      </c>
+      <c r="E20" s="13">
+        <v>99.27</v>
+      </c>
+      <c r="F20" s="15">
+        <v>98.76</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="11">
+        <v>99.63</v>
+      </c>
+      <c r="C21" s="12">
+        <v>98.27</v>
+      </c>
+      <c r="D21" s="12">
+        <v>99.16</v>
+      </c>
+      <c r="E21" s="13">
+        <v>99.27</v>
+      </c>
+      <c r="F21" s="15">
+        <v>98.9</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="11">
+        <v>99.56</v>
+      </c>
+      <c r="C22" s="12">
+        <v>98.27</v>
+      </c>
+      <c r="D22" s="28">
+        <v>98.75</v>
+      </c>
+      <c r="E22" s="13">
+        <v>99.19</v>
+      </c>
+      <c r="F22" s="15">
+        <v>99.05</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="11">
+        <v>99.48</v>
+      </c>
+      <c r="C23" s="12">
+        <v>99.27</v>
+      </c>
+      <c r="D23" s="28">
+        <v>99.78</v>
+      </c>
+      <c r="E23" s="13">
+        <v>99.78</v>
+      </c>
+      <c r="F23" s="15">
+        <v>99.63</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4">
+        <v>98.909090909090907</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="11">
+        <v>99.92</v>
+      </c>
+      <c r="C24" s="12">
+        <v>99.02</v>
+      </c>
+      <c r="D24" s="12">
+        <v>99.02</v>
+      </c>
+      <c r="E24" s="13">
+        <v>99.92</v>
+      </c>
+      <c r="F24" s="15">
+        <v>100</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="11">
+        <v>99.19</v>
+      </c>
+      <c r="C25" s="12">
+        <v>98.12</v>
+      </c>
+      <c r="D25" s="12">
+        <v>98.56</v>
+      </c>
+      <c r="E25" s="13">
+        <v>98.19</v>
+      </c>
+      <c r="F25" s="15">
+        <v>98.25</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B26" s="4">
+        <f>SUM(B18:B25)</f>
+        <v>797.09999999999991</v>
+      </c>
+      <c r="C26" s="4">
+        <f>SUM(C18:C25)</f>
+        <v>789.14</v>
+      </c>
+      <c r="D26" s="4">
+        <f>SUM(D18:D25)</f>
+        <v>792.74</v>
+      </c>
+      <c r="E26" s="4">
+        <f>SUM(E18:E25)</f>
+        <v>794.1099999999999</v>
+      </c>
+      <c r="F26" s="4">
+        <f>SUM(F18:F25)</f>
+        <v>793.41000000000008</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="11">
+        <v>84.82</v>
+      </c>
+      <c r="C30" s="12">
+        <v>88.42</v>
+      </c>
+      <c r="D30" s="12">
+        <v>87.56</v>
+      </c>
+      <c r="E30" s="13">
+        <v>88.42</v>
+      </c>
+      <c r="F30" s="6">
+        <v>86.303775241439794</v>
+      </c>
+      <c r="G30" s="5">
+        <v>86.303775241439794</v>
+      </c>
+      <c r="H30" s="6">
+        <v>85.408252853380105</v>
+      </c>
+      <c r="I30" s="6">
+        <v>74.398595258999094</v>
+      </c>
+      <c r="J30" s="6">
+        <v>83.0421422300263</v>
+      </c>
+      <c r="K30" s="6">
+        <v>83.0421422300263</v>
+      </c>
+      <c r="L30" s="6">
+        <v>80.956979806848096</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4">
+        <v>86.764705882352899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="11">
+        <v>87.19</v>
+      </c>
+      <c r="C31" s="12">
+        <v>78.23</v>
+      </c>
+      <c r="D31" s="12">
+        <v>79.239999999999995</v>
+      </c>
+      <c r="E31" s="13">
+        <v>82.83</v>
+      </c>
+      <c r="F31" s="6">
+        <v>75.886742756804196</v>
+      </c>
+      <c r="G31" s="6">
+        <v>75.886742756804196</v>
+      </c>
+      <c r="H31" s="5">
+        <v>87.497805092186098</v>
+      </c>
+      <c r="I31" s="6">
+        <v>80.057067603160604</v>
+      </c>
+      <c r="J31" s="6">
+        <v>86.602282704126395</v>
+      </c>
+      <c r="K31" s="6">
+        <v>86.602282704126395</v>
+      </c>
+      <c r="L31" s="6">
+        <v>86.900790166812996</v>
+      </c>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4">
+        <v>86.764705882352899</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="11">
+        <v>86.3</v>
+      </c>
+      <c r="C32" s="12">
+        <v>85.71</v>
+      </c>
+      <c r="D32" s="12">
+        <v>85.71</v>
+      </c>
+      <c r="E32" s="13">
+        <v>86.3</v>
+      </c>
+      <c r="F32" s="6">
+        <v>85.711150131694396</v>
+      </c>
+      <c r="G32" s="6">
+        <v>85.711150131694396</v>
+      </c>
+      <c r="H32" s="6">
+        <v>86.900790166812996</v>
+      </c>
+      <c r="I32" s="6">
+        <v>80.057067603160604</v>
+      </c>
+      <c r="J32" s="6">
+        <v>86.597892888498606</v>
+      </c>
+      <c r="K32" s="6">
+        <v>86.299385425812105</v>
+      </c>
+      <c r="L32" s="5">
+        <v>86.896400351185207</v>
+      </c>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4">
+        <v>85.294117647058798</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="11">
+        <v>80.33</v>
+      </c>
+      <c r="C33" s="12">
+        <v>59.32</v>
+      </c>
+      <c r="D33" s="12">
+        <v>62.14</v>
+      </c>
+      <c r="E33" s="13">
+        <v>72.31</v>
+      </c>
+      <c r="F33" s="6">
+        <v>56.540825285338002</v>
+      </c>
+      <c r="G33" s="6">
+        <v>56.540825285338002</v>
+      </c>
+      <c r="H33" s="6">
+        <v>79.14398595259</v>
+      </c>
+      <c r="I33" s="6">
+        <v>75.886742756804196</v>
+      </c>
+      <c r="J33" s="6">
+        <v>81.540825285338002</v>
+      </c>
+      <c r="K33" s="5">
+        <v>81.540825285338002</v>
+      </c>
+      <c r="L33" s="6">
+        <v>80.636523266022806</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4">
+        <v>85.294117647058798</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="11">
+        <v>86.59</v>
+      </c>
+      <c r="C34" s="12">
+        <v>83.46</v>
+      </c>
+      <c r="D34" s="28">
+        <v>83.76</v>
+      </c>
+      <c r="E34" s="13">
+        <v>85.12</v>
+      </c>
+      <c r="F34" s="6">
+        <v>82.730465320456503</v>
+      </c>
+      <c r="G34" s="6">
+        <v>82.124670763827893</v>
+      </c>
+      <c r="H34" s="5">
+        <v>83.920105355575004</v>
+      </c>
+      <c r="I34" s="6">
+        <v>75.575065847234399</v>
+      </c>
+      <c r="J34" s="6">
+        <v>79.152765583845394</v>
+      </c>
+      <c r="K34" s="6">
+        <v>80.338015803336205</v>
+      </c>
+      <c r="L34" s="6">
+        <v>81.8349429323968</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4">
+        <v>85.294117647058798</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="11">
+        <v>65.75</v>
+      </c>
+      <c r="C35" s="12">
+        <v>63.54</v>
+      </c>
+      <c r="D35" s="28">
+        <v>64.37</v>
+      </c>
+      <c r="E35" s="13">
+        <v>65.75</v>
+      </c>
+      <c r="F35" s="6">
+        <v>62.471466198419598</v>
+      </c>
+      <c r="G35" s="6">
+        <v>62.471466198419598</v>
+      </c>
+      <c r="H35" s="6">
+        <v>66.347673397717301</v>
+      </c>
+      <c r="I35" s="6">
+        <v>61.8700614574187</v>
+      </c>
+      <c r="J35" s="6">
+        <v>66.356453028972695</v>
+      </c>
+      <c r="K35" s="6">
+        <v>66.356453028972695</v>
+      </c>
+      <c r="L35" s="5">
+        <v>68.748902546093007</v>
+      </c>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4">
+        <v>66.176470588235205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="11">
+        <v>86.9</v>
+      </c>
+      <c r="C36" s="12">
+        <v>80.37</v>
+      </c>
+      <c r="D36" s="12">
+        <v>81.97</v>
+      </c>
+      <c r="E36" s="13">
+        <v>83.67</v>
+      </c>
+      <c r="F36" s="6">
+        <v>78.582089552238799</v>
+      </c>
+      <c r="G36" s="6">
+        <v>78.287971905179901</v>
+      </c>
+      <c r="H36" s="6">
+        <v>84.811237928007003</v>
+      </c>
+      <c r="I36" s="6">
+        <v>76.782265144863899</v>
+      </c>
+      <c r="J36" s="6">
+        <v>84.811237928007003</v>
+      </c>
+      <c r="K36" s="6">
+        <v>85.109745390693504</v>
+      </c>
+      <c r="L36" s="5">
+        <v>86.005267778753193</v>
+      </c>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4">
+        <v>86.764705882352899</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="11">
+        <v>76.48</v>
+      </c>
+      <c r="C37" s="12">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="D37" s="12">
+        <v>77.67</v>
+      </c>
+      <c r="E37" s="13">
+        <v>80.34</v>
+      </c>
+      <c r="F37" s="6">
+        <v>79.148375768217704</v>
+      </c>
+      <c r="G37" s="6">
+        <v>78.551360842844602</v>
+      </c>
+      <c r="H37" s="6">
+        <v>79.451273046531995</v>
+      </c>
+      <c r="I37" s="6">
+        <v>73.494293239683898</v>
+      </c>
+      <c r="J37" s="6">
+        <v>79.464442493415206</v>
+      </c>
+      <c r="K37" s="6">
+        <v>78.560140474099995</v>
+      </c>
+      <c r="L37" s="5">
+        <v>80.948200175592604</v>
+      </c>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4">
+        <v>79.411764705882305</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B38" s="4">
+        <f>SUM(B30:B37)</f>
+        <v>654.36</v>
+      </c>
+      <c r="C38" s="4">
+        <f t="shared" ref="C38:L38" si="1">SUM(C30:C37)</f>
+        <v>615.36999999999989</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="1"/>
+        <v>622.41999999999996</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="1"/>
+        <v>644.74</v>
+      </c>
+      <c r="F38" s="4">
+        <f t="shared" si="1"/>
+        <v>607.374890254609</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" si="1"/>
+        <v>605.87796312554838</v>
+      </c>
+      <c r="H38" s="4">
+        <f t="shared" si="1"/>
+        <v>653.48112379280053</v>
+      </c>
+      <c r="I38" s="4">
+        <f t="shared" si="1"/>
+        <v>598.12115891132544</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" si="1"/>
+        <v>647.5680421422295</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="1"/>
+        <v>647.84899034240516</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" si="1"/>
+        <v>652.92800702370459</v>
+      </c>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4">
+        <f>SUM(Q30:Q37)</f>
+        <v>661.76470588235259</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="11">
+        <v>83.46</v>
+      </c>
+      <c r="C42" s="12">
+        <v>84.66</v>
+      </c>
+      <c r="D42" s="12">
+        <v>84.87</v>
+      </c>
+      <c r="E42" s="13">
+        <v>85.97</v>
+      </c>
+      <c r="F42" s="6">
+        <v>84.317907444667995</v>
+      </c>
+      <c r="G42" s="6">
+        <v>84.317907444667995</v>
+      </c>
+      <c r="H42" s="6">
+        <v>86.305835010060306</v>
+      </c>
+      <c r="I42" s="6">
+        <v>82.036217303822895</v>
+      </c>
+      <c r="J42" s="6">
+        <v>84.317907444667995</v>
+      </c>
+      <c r="K42" s="6">
+        <v>84.317907444667995</v>
+      </c>
+      <c r="L42" s="5">
+        <v>88.865191146881301</v>
+      </c>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4">
+        <v>83.098591549295705</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="11">
+        <v>87.95</v>
+      </c>
+      <c r="C43" s="12">
+        <v>87.26</v>
+      </c>
+      <c r="D43" s="12">
+        <v>87.39</v>
+      </c>
+      <c r="E43" s="13">
+        <v>87.67</v>
+      </c>
+      <c r="F43" s="6">
+        <v>87.448692152917502</v>
+      </c>
+      <c r="G43" s="6">
+        <v>87.448692152917502</v>
+      </c>
+      <c r="H43" s="6">
+        <v>90.012072434607603</v>
+      </c>
+      <c r="I43" s="6">
+        <v>70.937625754527105</v>
+      </c>
+      <c r="J43" s="6">
+        <v>87.452716297786694</v>
+      </c>
+      <c r="K43" s="6">
+        <v>87.452716297786694</v>
+      </c>
+      <c r="L43" s="5">
+        <v>90.865191146881202</v>
+      </c>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4">
+        <v>67.605633802816897</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="11">
+        <v>84.3</v>
+      </c>
+      <c r="C44" s="12">
+        <v>86.71</v>
+      </c>
+      <c r="D44" s="12">
+        <v>87.78</v>
+      </c>
+      <c r="E44" s="13">
+        <v>88.01</v>
+      </c>
+      <c r="F44" s="6">
+        <v>87.444668008048296</v>
+      </c>
+      <c r="G44" s="6">
+        <v>87.444668008048296</v>
+      </c>
+      <c r="H44" s="5">
+        <v>89.167002012072402</v>
+      </c>
+      <c r="I44" s="6">
+        <v>71.223340040241396</v>
+      </c>
+      <c r="J44" s="6">
+        <v>85.734406438631794</v>
+      </c>
+      <c r="K44" s="6">
+        <v>85.448692152917502</v>
+      </c>
+      <c r="L44" s="6">
+        <v>88.865191146881202</v>
+      </c>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4">
+        <v>74.647887323943607</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="11">
+        <v>74.63</v>
+      </c>
+      <c r="C45" s="12">
+        <v>70.16</v>
+      </c>
+      <c r="D45" s="12">
+        <v>71.45</v>
+      </c>
+      <c r="E45" s="13">
+        <v>72.62</v>
+      </c>
+      <c r="F45" s="6">
+        <v>64.104627766599506</v>
+      </c>
+      <c r="G45" s="6">
+        <v>64.104627766599506</v>
+      </c>
+      <c r="H45" s="6">
+        <v>77.203219315895296</v>
+      </c>
+      <c r="I45" s="6">
+        <v>70.937625754527105</v>
+      </c>
+      <c r="J45" s="6">
+        <v>73.7786720321931</v>
+      </c>
+      <c r="K45" s="6">
+        <v>73.7786720321931</v>
+      </c>
+      <c r="L45" s="5">
+        <v>84.885311871227302</v>
+      </c>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4">
+        <v>77.464788732394297</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="11">
+        <v>92.3</v>
+      </c>
+      <c r="C46" s="12">
+        <v>91.65</v>
+      </c>
+      <c r="D46" s="28">
+        <v>93.16</v>
+      </c>
+      <c r="E46" s="13">
+        <v>93.97</v>
+      </c>
+      <c r="F46" s="6">
+        <v>92.293762575452703</v>
+      </c>
+      <c r="G46" s="5">
+        <v>92.591549295774598</v>
+      </c>
+      <c r="H46" s="6">
+        <v>91.452716297786694</v>
+      </c>
+      <c r="I46" s="6">
+        <v>84.889336016096493</v>
+      </c>
+      <c r="J46" s="6">
+        <v>91.7183098591549</v>
+      </c>
+      <c r="K46" s="6">
+        <v>91.440643863179005</v>
+      </c>
+      <c r="L46" s="6">
+        <v>91.738430583501</v>
+      </c>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4">
+        <v>95.774647887323894</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="11">
+        <v>92.43</v>
+      </c>
+      <c r="C47" s="12">
+        <v>90.94</v>
+      </c>
+      <c r="D47" s="28">
+        <v>90.12</v>
+      </c>
+      <c r="E47" s="13">
+        <v>90.31</v>
+      </c>
+      <c r="F47" s="6">
+        <v>92.020120724346</v>
+      </c>
+      <c r="G47" s="6">
+        <v>92.020120724346</v>
+      </c>
+      <c r="H47" s="6">
+        <v>90.305835010060306</v>
+      </c>
+      <c r="I47" s="6">
+        <v>85.758551307847</v>
+      </c>
+      <c r="J47" s="6">
+        <v>92.305835010060306</v>
+      </c>
+      <c r="K47" s="5">
+        <v>92.305835010060306</v>
+      </c>
+      <c r="L47" s="6">
+        <v>91.440643863179005</v>
+      </c>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4">
+        <v>95.774647887323894</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="11">
+        <v>92.29</v>
+      </c>
+      <c r="C48" s="12">
+        <v>92.45</v>
+      </c>
+      <c r="D48" s="12">
+        <v>92.13</v>
+      </c>
+      <c r="E48" s="13">
+        <v>93.64</v>
+      </c>
+      <c r="F48" s="6">
+        <v>92.575452716297704</v>
+      </c>
+      <c r="G48" s="6">
+        <v>92.575452716297704</v>
+      </c>
+      <c r="H48" s="6">
+        <v>91.722334004024106</v>
+      </c>
+      <c r="I48" s="6">
+        <v>84.309859154929498</v>
+      </c>
+      <c r="J48" s="6">
+        <v>90.575452716297704</v>
+      </c>
+      <c r="K48" s="6">
+        <v>90.579476861166995</v>
+      </c>
+      <c r="L48" s="5">
+        <v>92.579476861166995</v>
+      </c>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4">
+        <v>83.098591549295705</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="11">
+        <v>88.59</v>
+      </c>
+      <c r="C49" s="12">
+        <v>87.12</v>
+      </c>
+      <c r="D49" s="12">
+        <v>88.04</v>
+      </c>
+      <c r="E49" s="13">
+        <v>88.12</v>
+      </c>
+      <c r="F49" s="5">
+        <v>88.893360160965699</v>
+      </c>
+      <c r="G49" s="6">
+        <v>88.321931589537201</v>
+      </c>
+      <c r="H49" s="6">
+        <v>87.187122736418502</v>
+      </c>
+      <c r="I49" s="6">
+        <v>80.913480885311799</v>
+      </c>
+      <c r="J49" s="6">
+        <v>86.893360160965798</v>
+      </c>
+      <c r="K49" s="6">
+        <v>88.313883299798803</v>
+      </c>
+      <c r="L49" s="6">
+        <v>88.619718309859095</v>
+      </c>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4">
+        <v>90.1408450704225</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B50" s="4">
+        <f>SUM(B42:B49)</f>
+        <v>695.94999999999993</v>
+      </c>
+      <c r="C50" s="4">
+        <f t="shared" ref="C50:L50" si="2">SUM(C42:C49)</f>
+        <v>690.94999999999993</v>
+      </c>
+      <c r="D50" s="4">
+        <f t="shared" si="2"/>
+        <v>694.93999999999994</v>
+      </c>
+      <c r="E50" s="4">
+        <f t="shared" si="2"/>
+        <v>700.31</v>
+      </c>
+      <c r="F50" s="4">
+        <f t="shared" si="2"/>
+        <v>689.09859154929541</v>
+      </c>
+      <c r="G50" s="4">
+        <f t="shared" si="2"/>
+        <v>688.82494969818868</v>
+      </c>
+      <c r="H50" s="4">
+        <f t="shared" si="2"/>
+        <v>703.35613682092514</v>
+      </c>
+      <c r="I50" s="4">
+        <f t="shared" si="2"/>
+        <v>631.00603621730329</v>
+      </c>
+      <c r="J50" s="4">
+        <f t="shared" si="2"/>
+        <v>692.77665995975826</v>
+      </c>
+      <c r="K50" s="4">
+        <f t="shared" si="2"/>
+        <v>693.63782696177043</v>
+      </c>
+      <c r="L50" s="4">
+        <f t="shared" si="2"/>
+        <v>717.85915492957713</v>
+      </c>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4">
+        <f>SUM(Q42:Q49)</f>
+        <v>667.60563380281656</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="F2:L2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/实验记录.xlsx
+++ b/实验记录.xlsx
@@ -11,7 +11,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="108">
   <si>
     <t>kNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,6 +360,94 @@
   </si>
   <si>
     <t>oripca_new(rf.adb)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori_cos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori_sin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori_tan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arccos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arcsin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arctan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori_arccos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori_arcsin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori_arctan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>square</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori_squre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>norma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori_nomar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pca</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori_pca</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori_newly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newlyxy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori_newlyxy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4751,10 +4838,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:AM50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5357,7 +5444,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
@@ -5385,8 +5472,74 @@
       <c r="L17" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R17" t="s">
+        <v>86</v>
+      </c>
+      <c r="S17" t="s">
+        <v>87</v>
+      </c>
+      <c r="T17" t="s">
+        <v>88</v>
+      </c>
+      <c r="U17" t="s">
+        <v>89</v>
+      </c>
+      <c r="V17" t="s">
+        <v>90</v>
+      </c>
+      <c r="W17" t="s">
+        <v>91</v>
+      </c>
+      <c r="X17" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
@@ -5419,7 +5572,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
@@ -5452,7 +5605,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -5485,7 +5638,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
@@ -5518,7 +5671,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
@@ -5551,7 +5704,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -5584,7 +5737,7 @@
         <v>98.909090909090907</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
@@ -5617,7 +5770,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
@@ -5650,7 +5803,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B26" s="4">
         <f>SUM(B18:B25)</f>
         <v>797.09999999999991</v>
@@ -5675,14 +5828,17 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q26" s="4">
+        <f>SUM(Q18:Q25)</f>
+        <v>798.90909090909088</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>15</v>
       </c>
@@ -5711,7 +5867,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
@@ -5756,7 +5912,7 @@
         <v>86.764705882352899</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>1</v>
       </c>
@@ -5801,7 +5957,7 @@
         <v>86.764705882352899</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>2</v>
       </c>
